--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_21_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>691748.8070968268</v>
+        <v>688444.0751295566</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11082184.24731698</v>
+        <v>11083107.15731289</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17406240.88479893</v>
+        <v>17406240.34100056</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5319703.520274271</v>
+        <v>5318712.695192724</v>
       </c>
     </row>
     <row r="11">
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>4.562286607642875</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>4.018462044011843</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="D22" t="n">
-        <v>4.018462044011843</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.562286607642875</v>
+        <v>4.018462044011844</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="W23" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y23" t="n">
         <v>4.562286607642875</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="S24" t="n">
+      <c r="V24" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="V25" t="n">
         <v>4.018462044011844</v>
@@ -2539,10 +2539,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="X25" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="U27" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="V27" t="n">
+      <c r="X27" t="n">
         <v>4.018462044011843</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>4.562286607642875</v>
@@ -2789,73 +2789,73 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.018462044011843</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="X29" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4.018462044011844</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S30" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="V30" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2947,67 +2947,67 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>4.018462044011844</v>
       </c>
-      <c r="H31" t="n">
+      <c r="T31" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="I31" t="n">
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,20 +3108,20 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="U33" t="n">
-        <v>4.018462044011844</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="V33" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,16 +3229,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="T34" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="U35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="W35" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="S36" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="U36" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>4.562286607642875</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3439,55 +3439,55 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="I37" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="V37" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,61 +3506,61 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="H38" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W39" t="n">
-        <v>4.018462044011844</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X39" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
     <row r="44">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>9.398310411744323</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.91497415331077</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>13.64077611982112</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>9.032405809070742</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>4.424035498320363</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.69915520587216</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.36498292861143</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.881646670177876</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>9.215818947438606</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>13.73248268900505</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>18.2491464305715</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>14.19009386086257</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>9.581723550112187</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.973353239361809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="C20" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D20" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E20" t="n">
         <v>0.36498292861143</v>
@@ -5750,25 +5750,25 @@
         <v>0.36498292861143</v>
       </c>
       <c r="J20" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K20" t="n">
-        <v>9.398310411744323</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L20" t="n">
-        <v>9.398310411744323</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M20" t="n">
+        <v>4.69915520587216</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.215818947438606</v>
+      </c>
+      <c r="O20" t="n">
         <v>13.73248268900505</v>
       </c>
-      <c r="N20" t="n">
-        <v>18.2491464305715</v>
-      </c>
-      <c r="O20" t="n">
-        <v>18.2491464305715</v>
-      </c>
       <c r="P20" t="n">
-        <v>18.2491464305715</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q20" t="n">
         <v>18.2491464305715</v>
@@ -5786,16 +5786,16 @@
         <v>18.2491464305715</v>
       </c>
       <c r="V20" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W20" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X20" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="C21" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D21" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E21" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F21" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H21" t="n">
         <v>0.36498292861143</v>
@@ -5859,22 +5859,22 @@
         <v>18.2491464305715</v>
       </c>
       <c r="T21" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="U21" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="V21" t="n">
         <v>13.64077611982112</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="Y21" t="n">
         <v>9.032405809070742</v>
-      </c>
-      <c r="V21" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="W21" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="X21" t="n">
-        <v>4.424035498320363</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.032405809070742</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="C22" t="n">
-        <v>4.424035498320363</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D22" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E22" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F22" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G22" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H22" t="n">
         <v>0.36498292861143</v>
@@ -5911,19 +5911,19 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K22" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L22" t="n">
-        <v>0.36498292861143</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M22" t="n">
-        <v>4.881646670177876</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="N22" t="n">
-        <v>9.398310411744323</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="O22" t="n">
-        <v>13.91497415331077</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P22" t="n">
         <v>18.2491464305715</v>
@@ -5944,16 +5944,16 @@
         <v>18.2491464305715</v>
       </c>
       <c r="V22" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W22" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X22" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.032405809070742</v>
+        <v>14.19009386086257</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C23" t="n">
         <v>0.36498292861143</v>
@@ -5996,16 +5996,16 @@
         <v>4.881646670177876</v>
       </c>
       <c r="M23" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N23" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O23" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P23" t="n">
-        <v>18.2491464305715</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q23" t="n">
         <v>18.2491464305715</v>
@@ -6023,16 +6023,16 @@
         <v>18.2491464305715</v>
       </c>
       <c r="V23" t="n">
-        <v>18.2491464305715</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="W23" t="n">
-        <v>13.64077611982112</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X23" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6051,10 @@
         <v>4.424035498320363</v>
       </c>
       <c r="E24" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F24" t="n">
-        <v>4.424035498320363</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G24" t="n">
         <v>0.36498292861143</v>
@@ -6090,19 +6090,19 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R24" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="S24" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="T24" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="U24" t="n">
         <v>13.64077611982112</v>
       </c>
-      <c r="S24" t="n">
+      <c r="V24" t="n">
         <v>9.032405809070742</v>
-      </c>
-      <c r="T24" t="n">
-        <v>4.424035498320363</v>
-      </c>
-      <c r="U24" t="n">
-        <v>4.424035498320363</v>
-      </c>
-      <c r="V24" t="n">
-        <v>4.424035498320363</v>
       </c>
       <c r="W24" t="n">
         <v>4.424035498320363</v>
@@ -6148,16 +6148,16 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K25" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L25" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M25" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N25" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O25" t="n">
         <v>18.2491464305715</v>
@@ -6178,19 +6178,19 @@
         <v>18.2491464305715</v>
       </c>
       <c r="U25" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V25" t="n">
-        <v>14.19009386086257</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="W25" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X25" t="n">
         <v>4.973353239361809</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C26" t="n">
         <v>0.36498292861143</v>
@@ -6224,25 +6224,25 @@
         <v>0.36498292861143</v>
       </c>
       <c r="J26" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K26" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L26" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4.69915520587216</v>
+      </c>
+      <c r="N26" t="n">
         <v>9.215818947438606</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
+        <v>9.215818947438606</v>
+      </c>
+      <c r="P26" t="n">
         <v>13.73248268900505</v>
-      </c>
-      <c r="N26" t="n">
-        <v>18.2491464305715</v>
-      </c>
-      <c r="O26" t="n">
-        <v>18.2491464305715</v>
-      </c>
-      <c r="P26" t="n">
-        <v>18.2491464305715</v>
       </c>
       <c r="Q26" t="n">
         <v>18.2491464305715</v>
@@ -6251,25 +6251,25 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S26" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T26" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U26" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V26" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W26" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X26" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C27" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D27" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E27" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F27" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G27" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H27" t="n">
         <v>0.36498292861143</v>
@@ -6309,13 +6309,13 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L27" t="n">
-        <v>4.69915520587216</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M27" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N27" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O27" t="n">
         <v>18.2491464305715</v>
@@ -6333,22 +6333,22 @@
         <v>13.64077611982112</v>
       </c>
       <c r="T27" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="U27" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="V27" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="W27" t="n">
         <v>9.032405809070742</v>
       </c>
-      <c r="U27" t="n">
-        <v>4.424035498320363</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.36498292861143</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0.36498292861143</v>
-      </c>
       <c r="X27" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="28">
@@ -6376,7 +6376,7 @@
         <v>4.973353239361809</v>
       </c>
       <c r="H28" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I28" t="n">
         <v>0.36498292861143</v>
@@ -6385,16 +6385,16 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K28" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L28" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M28" t="n">
-        <v>9.398310411744323</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N28" t="n">
-        <v>13.73248268900505</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O28" t="n">
         <v>13.73248268900505</v>
@@ -6418,7 +6418,7 @@
         <v>14.19009386086257</v>
       </c>
       <c r="V28" t="n">
-        <v>9.581723550112187</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="W28" t="n">
         <v>9.581723550112187</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.581723550112187</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C29" t="n">
-        <v>9.581723550112187</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D29" t="n">
-        <v>9.581723550112187</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E29" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F29" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G29" t="n">
         <v>0.36498292861143</v>
@@ -6461,52 +6461,52 @@
         <v>0.36498292861143</v>
       </c>
       <c r="J29" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="K29" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L29" t="n">
         <v>4.881646670177876</v>
       </c>
       <c r="M29" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N29" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O29" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P29" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q29" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="R29" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S29" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T29" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U29" t="n">
-        <v>14.19009386086257</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V29" t="n">
-        <v>14.19009386086257</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W29" t="n">
-        <v>14.19009386086257</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X29" t="n">
-        <v>14.19009386086257</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.19009386086257</v>
+        <v>4.424035498320363</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C30" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D30" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E30" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F30" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="G30" t="n">
         <v>0.36498292861143</v>
@@ -6564,28 +6564,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R30" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S30" t="n">
-        <v>14.19009386086257</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T30" t="n">
-        <v>14.19009386086257</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U30" t="n">
-        <v>9.581723550112187</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V30" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W30" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X30" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C31" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D31" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E31" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F31" t="n">
-        <v>13.64077611982112</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G31" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H31" t="n">
         <v>4.973353239361809</v>
       </c>
       <c r="I31" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="J31" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="K31" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L31" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M31" t="n">
-        <v>4.881646670177876</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N31" t="n">
-        <v>9.398310411744323</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O31" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P31" t="n">
         <v>18.2491464305715</v>
@@ -6646,25 +6646,25 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S31" t="n">
-        <v>18.2491464305715</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="T31" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="U31" t="n">
-        <v>18.2491464305715</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="V31" t="n">
-        <v>18.2491464305715</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="W31" t="n">
-        <v>18.2491464305715</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="X31" t="n">
-        <v>18.2491464305715</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.2491464305715</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.36498292861143</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C32" t="n">
-        <v>0.36498292861143</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D32" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E32" t="n">
         <v>0.36498292861143</v>
@@ -6698,25 +6698,25 @@
         <v>0.36498292861143</v>
       </c>
       <c r="J32" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
+        <v>4.881646670177876</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.881646670177876</v>
+      </c>
+      <c r="N32" t="n">
         <v>9.398310411744323</v>
       </c>
-      <c r="L32" t="n">
+      <c r="O32" t="n">
         <v>9.398310411744323</v>
       </c>
-      <c r="M32" t="n">
-        <v>9.398310411744323</v>
-      </c>
-      <c r="N32" t="n">
-        <v>13.91497415331077</v>
-      </c>
-      <c r="O32" t="n">
-        <v>13.91497415331077</v>
-      </c>
       <c r="P32" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q32" t="n">
         <v>18.2491464305715</v>
@@ -6731,19 +6731,19 @@
         <v>13.64077611982112</v>
       </c>
       <c r="U32" t="n">
-        <v>9.032405809070742</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V32" t="n">
-        <v>9.032405809070742</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W32" t="n">
-        <v>4.424035498320363</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X32" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>4.973353239361809</v>
       </c>
       <c r="C33" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D33" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E33" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F33" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G33" t="n">
         <v>0.36498292861143</v>
@@ -6786,10 +6786,10 @@
         <v>4.881646670177876</v>
       </c>
       <c r="M33" t="n">
-        <v>9.215818947438606</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N33" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O33" t="n">
         <v>18.2491464305715</v>
@@ -6801,16 +6801,16 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R33" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S33" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T33" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U33" t="n">
-        <v>9.581723550112187</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="V33" t="n">
         <v>4.973353239361809</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="C34" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D34" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E34" t="n">
         <v>0.36498292861143</v>
@@ -6862,13 +6862,13 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L34" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="M34" t="n">
         <v>4.69915520587216</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>9.215818947438606</v>
-      </c>
-      <c r="N34" t="n">
-        <v>13.73248268900505</v>
       </c>
       <c r="O34" t="n">
         <v>13.73248268900505</v>
@@ -6877,31 +6877,31 @@
         <v>18.2491464305715</v>
       </c>
       <c r="Q34" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="R34" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="S34" t="n">
         <v>13.64077611982112</v>
       </c>
-      <c r="R34" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4.424035498320363</v>
-      </c>
       <c r="T34" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U34" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V34" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W34" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X34" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C35" t="n">
         <v>0.36498292861143</v>
@@ -6938,49 +6938,49 @@
         <v>0.36498292861143</v>
       </c>
       <c r="K35" t="n">
-        <v>0.36498292861143</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="L35" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M35" t="n">
+        <v>4.69915520587216</v>
+      </c>
+      <c r="N35" t="n">
         <v>9.215818947438606</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
+        <v>9.215818947438606</v>
+      </c>
+      <c r="P35" t="n">
         <v>13.73248268900505</v>
-      </c>
-      <c r="O35" t="n">
-        <v>18.2491464305715</v>
-      </c>
-      <c r="P35" t="n">
-        <v>18.2491464305715</v>
       </c>
       <c r="Q35" t="n">
         <v>18.2491464305715</v>
       </c>
       <c r="R35" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S35" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T35" t="n">
-        <v>18.2491464305715</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U35" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V35" t="n">
-        <v>9.032405809070742</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="W35" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="X35" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7020,10 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L36" t="n">
-        <v>4.881646670177876</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M36" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N36" t="n">
         <v>13.73248268900505</v>
@@ -7038,22 +7038,22 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R36" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="S36" t="n">
-        <v>14.19009386086257</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T36" t="n">
-        <v>9.581723550112187</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="U36" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="V36" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="W36" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="X36" t="n">
         <v>0.36498292861143</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13.64077611982112</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C37" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D37" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E37" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F37" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G37" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H37" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I37" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J37" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="K37" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L37" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M37" t="n">
-        <v>9.398310411744323</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="N37" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="O37" t="n">
-        <v>13.73248268900505</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P37" t="n">
         <v>18.2491464305715</v>
@@ -7117,28 +7117,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R37" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S37" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T37" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U37" t="n">
         <v>13.64077611982112</v>
       </c>
       <c r="V37" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W37" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X37" t="n">
-        <v>13.64077611982112</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.64077611982112</v>
+        <v>4.424035498320363</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="C38" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="D38" t="n">
-        <v>13.64077611982112</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="E38" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F38" t="n">
-        <v>13.64077611982112</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G38" t="n">
-        <v>9.032405809070742</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H38" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I38" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="J38" t="n">
-        <v>0.36498292861143</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="K38" t="n">
-        <v>4.881646670177876</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="L38" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="M38" t="n">
+        <v>9.215818947438606</v>
+      </c>
+      <c r="N38" t="n">
         <v>13.73248268900505</v>
       </c>
-      <c r="N38" t="n">
-        <v>18.2491464305715</v>
-      </c>
       <c r="O38" t="n">
-        <v>18.2491464305715</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P38" t="n">
         <v>18.2491464305715</v>
@@ -7199,7 +7199,7 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T38" t="n">
         <v>13.64077611982112</v>
@@ -7208,16 +7208,16 @@
         <v>13.64077611982112</v>
       </c>
       <c r="V38" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W38" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X38" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.64077611982112</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="C39" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D39" t="n">
         <v>0.36498292861143</v>
@@ -7287,16 +7287,16 @@
         <v>18.2491464305715</v>
       </c>
       <c r="V39" t="n">
-        <v>18.2491464305715</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W39" t="n">
-        <v>14.19009386086257</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X39" t="n">
-        <v>9.581723550112187</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C40" t="n">
-        <v>4.973353239361809</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="D40" t="n">
-        <v>4.973353239361809</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="E40" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="F40" t="n">
-        <v>4.973353239361809</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="G40" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="H40" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="I40" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="J40" t="n">
         <v>0.36498292861143</v>
@@ -7336,13 +7336,13 @@
         <v>0.36498292861143</v>
       </c>
       <c r="L40" t="n">
-        <v>4.881646670177876</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M40" t="n">
-        <v>9.398310411744323</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N40" t="n">
-        <v>13.73248268900505</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O40" t="n">
         <v>13.73248268900505</v>
@@ -7357,25 +7357,25 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S40" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T40" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U40" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V40" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W40" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X40" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>4.69915520587216</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="44">
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>109.5025081269448</v>
+        <v>109.2705774344176</v>
       </c>
       <c r="K5" t="n">
-        <v>112.8648455540765</v>
+        <v>112.517241567808</v>
       </c>
       <c r="L5" t="n">
-        <v>102.7443141749569</v>
+        <v>102.3130806927438</v>
       </c>
       <c r="M5" t="n">
-        <v>82.33351547795559</v>
+        <v>81.85368513919698</v>
       </c>
       <c r="N5" t="n">
-        <v>79.00534533155761</v>
+        <v>78.51775083627069</v>
       </c>
       <c r="O5" t="n">
-        <v>88.072468124767</v>
+        <v>87.6120464694196</v>
       </c>
       <c r="P5" t="n">
-        <v>110.0173097330504</v>
+        <v>109.6243505024429</v>
       </c>
       <c r="Q5" t="n">
-        <v>131.2777578228719</v>
+        <v>130.9826618058744</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>84.22686989231241</v>
+        <v>84.08873356072752</v>
       </c>
       <c r="K6" t="n">
-        <v>65.01286870550418</v>
+        <v>64.77677171279443</v>
       </c>
       <c r="L6" t="n">
-        <v>40.62737944960128</v>
+        <v>40.30991790672444</v>
       </c>
       <c r="M6" t="n">
-        <v>27.85784345479551</v>
+        <v>27.48738080795188</v>
       </c>
       <c r="N6" t="n">
-        <v>14.04097089386046</v>
+        <v>13.66070320310088</v>
       </c>
       <c r="O6" t="n">
-        <v>35.28898281599652</v>
+        <v>34.94111217027509</v>
       </c>
       <c r="P6" t="n">
-        <v>47.85086958220376</v>
+        <v>47.57167272019443</v>
       </c>
       <c r="Q6" t="n">
-        <v>82.41046982155808</v>
+        <v>82.22383411316726</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>85.08335249536296</v>
+        <v>84.9409397227156</v>
       </c>
       <c r="L7" t="n">
-        <v>78.66952155418272</v>
+        <v>78.48728223619563</v>
       </c>
       <c r="M7" t="n">
-        <v>79.65478523422493</v>
+        <v>79.46263942524538</v>
       </c>
       <c r="N7" t="n">
-        <v>69.8238776240612</v>
+        <v>69.6363006129522</v>
       </c>
       <c r="O7" t="n">
-        <v>85.01192394185992</v>
+        <v>84.83866621188173</v>
       </c>
       <c r="P7" t="n">
-        <v>91.99690349339693</v>
+        <v>91.84865157420283</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280013</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -8459,7 +8459,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729366</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913169</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8623,10 +8623,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.9833858147683</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615827</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9170,16 +9170,16 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>4.658850007114239</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.72420959127265</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>47.04693691028752</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
         <v>80.70197082457096</v>
@@ -9325,19 +9325,19 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>51.99825569640058</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>51.10133522184798</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>42.23779755379654</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
         <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>57.8521323086317</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
         <v>28.8362588753597</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P20" t="n">
         <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M22" t="n">
         <v>51.285670034278</v>
       </c>
       <c r="N22" t="n">
-        <v>42.23779755379654</v>
+        <v>42.05346274136652</v>
       </c>
       <c r="O22" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>70.96632025130917</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9644,7 +9644,7 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>4.658850007114239</v>
+        <v>4.474515194684224</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>47.04693691028752</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9796,19 +9796,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L25" t="n">
         <v>51.99825569640058</v>
       </c>
       <c r="M25" t="n">
-        <v>51.10133522184798</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
         <v>42.23779755379654</v>
       </c>
       <c r="O25" t="n">
-        <v>59.87999055852636</v>
+        <v>59.69565574609634</v>
       </c>
       <c r="P25" t="n">
         <v>66.5883684560963</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
         <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>33.21421067057256</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>4.658850007114239</v>
+        <v>4.474515194684224</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10033,19 +10033,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>65.23786115827478</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
         <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>51.285670034278</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N28" t="n">
-        <v>42.05346274136652</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O28" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P28" t="n">
         <v>71.15065506373918</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.75247211164648</v>
+        <v>74.31475871928936</v>
       </c>
       <c r="K29" t="n">
         <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>33.39854548300258</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>4.658850007114239</v>
+        <v>4.474515194684224</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
-        <v>85.07992261978383</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>65.23786115827478</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4359690887577</v>
+        <v>51.81392088397056</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N31" t="n">
         <v>42.23779755379654</v>
       </c>
       <c r="O31" t="n">
-        <v>59.69565574609634</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P31" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
         <v>57.8521323086317</v>
@@ -10364,10 +10364,10 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>47.04693691028752</v>
       </c>
       <c r="Q32" t="n">
-        <v>85.07992261978383</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10510,16 +10510,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>51.81392088397056</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>51.285670034278</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N34" t="n">
         <v>42.23779755379654</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P34" t="n">
         <v>71.15065506373918</v>
@@ -10586,25 +10586,25 @@
         <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28984570098882</v>
+        <v>57.66779749620168</v>
       </c>
       <c r="L35" t="n">
-        <v>33.39854548300258</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>4.474515194684224</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.72420959127265</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10744,7 +10744,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L37" t="n">
         <v>51.99825569640058</v>
@@ -10759,7 +10759,7 @@
         <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>71.15065506373918</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.75247211164648</v>
+        <v>74.13042390685935</v>
       </c>
       <c r="K38" t="n">
         <v>57.8521323086317</v>
       </c>
       <c r="L38" t="n">
-        <v>33.39854548300258</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>4.474515194684224</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>42.66898511507466</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q38" t="n">
         <v>80.70197082457096</v>
@@ -10984,16 +10984,16 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
-        <v>51.99825569640058</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>51.285670034278</v>
+        <v>51.10133522184798</v>
       </c>
       <c r="N40" t="n">
-        <v>42.05346274136652</v>
+        <v>42.23779755379654</v>
       </c>
       <c r="O40" t="n">
-        <v>55.31770395088348</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P40" t="n">
         <v>71.15065506373918</v>
@@ -11066,7 +11066,7 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.474515194684224</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>42.66898511507466</v>
+        <v>47.23127172271754</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.70197082457096</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11218,16 +11218,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L43" t="n">
-        <v>47.4359690887577</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M43" t="n">
-        <v>46.72338342663512</v>
+        <v>51.285670034278</v>
       </c>
       <c r="N43" t="n">
-        <v>37.67551094615366</v>
+        <v>42.05346274136652</v>
       </c>
       <c r="O43" t="n">
         <v>55.31770395088348</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.45979848628642</v>
+        <v>14.45706583110708</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652213</v>
+        <v>14.25430980652214</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
-        <v>321.4833473056998</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I17" t="n">
-        <v>155.3603983125523</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S17" t="n">
-        <v>175.1207658078018</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
         <v>217.3557120022016</v>
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>140.506925785741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>132.0796327584602</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H18" t="n">
-        <v>100.8971999567888</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>61.22228174032408</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>144.0531864105695</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23944,16 +23944,16 @@
         <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>282.2684838929392</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9607117289481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>221.1473687813943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>378.1715550558377</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>350.1207550130401</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>377.9119080282499</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24026,13 +24026,13 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
-        <v>323.733796426123</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>344.6786821097701</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>365.1688140708262</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>381.6756520484107</v>
@@ -24051,7 +24051,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>143.4266035206269</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24063,7 +24063,7 @@
         <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4594865644317</v>
+        <v>100.8971999567888</v>
       </c>
       <c r="I21" t="n">
         <v>65.24074378433592</v>
@@ -24099,22 +24099,22 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>192.7745106155041</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>221.3329377235222</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>228.2383005417824</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>201.2106985958346</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>201.6642337332925</v>
+        <v>201.1204091696615</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24130,7 @@
         <v>162.684534490985</v>
       </c>
       <c r="D22" t="n">
-        <v>144.5970109742005</v>
+        <v>144.0531864105695</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9975751224423</v>
+        <v>152.4352885147994</v>
       </c>
       <c r="I22" t="n">
         <v>137.761816287615</v>
@@ -24184,7 +24184,7 @@
         <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
-        <v>247.5753567161851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.0223667444519</v>
+        <v>214.5661913080829</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24203,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>378.7153796194687</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>360.7106051633647</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24263,13 +24263,13 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>323.733796426123</v>
       </c>
       <c r="W23" t="n">
         <v>344.6786821097701</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>365.1688140708262</v>
       </c>
       <c r="Y23" t="n">
         <v>381.6756520484107</v>
@@ -24291,13 +24291,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>153.6266184113891</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6234573220913</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
         <v>105.4594865644317</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>52.03494045792093</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S24" t="n">
-        <v>154.0890131332548</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
-        <v>192.7745106155041</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8952243311651</v>
+        <v>221.3329377235222</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>228.2383005417824</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>175.2696935742944</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24418,7 +24418,7 @@
         <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
-        <v>286.286945936951</v>
+        <v>281.7246593293082</v>
       </c>
       <c r="V25" t="n">
         <v>248.1191812798162</v>
@@ -24427,10 +24427,10 @@
         <v>281.9607117289481</v>
       </c>
       <c r="X25" t="n">
-        <v>221.1473687813943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.0223667444519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>378.1715550558377</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>361.2544297269957</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24491,22 +24491,22 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S26" t="n">
-        <v>175.1207658078018</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T26" t="n">
         <v>212.7934253945587</v>
       </c>
       <c r="U26" t="n">
-        <v>246.6784637291018</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>344.6786821097701</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>365.1688140708262</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24537,7 +24537,7 @@
         <v>136.6419193661031</v>
       </c>
       <c r="H27" t="n">
-        <v>105.4594865644317</v>
+        <v>100.8971999567888</v>
       </c>
       <c r="I27" t="n">
         <v>65.24074378433592</v>
@@ -24573,19 +24573,19 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7745106155041</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U27" t="n">
-        <v>221.3329377235222</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V27" t="n">
-        <v>228.7821251054134</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>201.7545231594656</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24616,10 +24616,10 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H28" t="n">
-        <v>152.4352885147994</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I28" t="n">
-        <v>137.761816287615</v>
+        <v>133.1995296799722</v>
       </c>
       <c r="J28" t="n">
         <v>51.77372115642321</v>
@@ -24658,10 +24658,10 @@
         <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
-        <v>247.5753567161851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X28" t="n">
         <v>221.1473687813943</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>378.1715550558377</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>377.3680834646189</v>
+        <v>377.9119080282499</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.4291687688446</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H29" t="n">
         <v>326.0456339133427</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.48082925531696</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S29" t="n">
         <v>179.1392278518137</v>
@@ -24734,16 +24734,16 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2407503367447</v>
+        <v>246.6784637291018</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>344.6786821097701</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>365.1688140708262</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6419193661031</v>
+        <v>132.6234573220913</v>
       </c>
       <c r="H30" t="n">
         <v>105.4594865644317</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S30" t="n">
-        <v>154.6328376968858</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T30" t="n">
         <v>197.336797223147</v>
       </c>
       <c r="U30" t="n">
-        <v>221.3329377235222</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V30" t="n">
-        <v>228.2383005417824</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>201.2106985958346</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.2696935742944</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>163.3843212895495</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H31" t="n">
-        <v>152.4352885147994</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I31" t="n">
-        <v>133.1995296799722</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J31" t="n">
-        <v>51.77372115642321</v>
+        <v>47.21143454878033</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S31" t="n">
-        <v>213.7659454939867</v>
+        <v>209.7474834499749</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4323882309924</v>
+        <v>220.8701016233495</v>
       </c>
       <c r="U31" t="n">
         <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>247.5753567161851</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>378.7153796194687</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>350.1207550130401</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>377.3680834646189</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24971,16 +24971,16 @@
         <v>217.3557120022016</v>
       </c>
       <c r="U32" t="n">
-        <v>246.6784637291018</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>344.6786821097701</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>365.7126386344572</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>168.1462123806729</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6419193661031</v>
+        <v>132.0796327584602</v>
       </c>
       <c r="H33" t="n">
         <v>105.4594865644317</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S33" t="n">
         <v>158.6512997408977</v>
@@ -25053,7 +25053,7 @@
         <v>221.8767622871533</v>
       </c>
       <c r="V33" t="n">
-        <v>228.2383005417824</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>175.2696935742944</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>144.0531864105695</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4155006025573</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,16 +25117,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.34636041377521</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R34" t="n">
-        <v>146.2836725955014</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S34" t="n">
         <v>209.2036588863439</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4139261869805</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U34" t="n">
         <v>286.286945936951</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>361.2544297269957</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>67.4992912993288</v>
+        <v>62.93700469168593</v>
       </c>
       <c r="S35" t="n">
         <v>179.1392278518137</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3557120022016</v>
+        <v>212.7934253945587</v>
       </c>
       <c r="U35" t="n">
-        <v>246.6784637291018</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
         <v>323.189971862492</v>
       </c>
       <c r="W35" t="n">
-        <v>345.2225066734011</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.6756520484107</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59722706556381</v>
+        <v>52.03494045792093</v>
       </c>
       <c r="S36" t="n">
-        <v>154.6328376968858</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T36" t="n">
         <v>192.7745106155041</v>
       </c>
       <c r="U36" t="n">
-        <v>221.3329377235222</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V36" t="n">
         <v>228.2383005417824</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>201.7545231594656</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>163.228359054616</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25327,13 +25327,13 @@
         <v>167.4027833335613</v>
       </c>
       <c r="H37" t="n">
-        <v>152.4352885147994</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I37" t="n">
-        <v>133.7433542436032</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J37" t="n">
-        <v>47.21143454878033</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>36.90864702141808</v>
       </c>
       <c r="R37" t="n">
-        <v>146.2836725955014</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S37" t="n">
         <v>213.7659454939867</v>
@@ -25366,16 +25366,16 @@
         <v>225.4323882309924</v>
       </c>
       <c r="U37" t="n">
-        <v>286.286945936951</v>
+        <v>281.7246593293082</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>247.5753567161851</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>221.1473687813943</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25394,22 +25394,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>350.1207550130401</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>377.9119080282499</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.4291687688446</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H38" t="n">
-        <v>322.0271718693308</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I38" t="n">
-        <v>155.3603983125523</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25439,16 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S38" t="n">
-        <v>174.5769412441708</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3557120022016</v>
+        <v>212.7934253945587</v>
       </c>
       <c r="U38" t="n">
         <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>323.189971862492</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>143.4266035206269</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25527,16 +25527,16 @@
         <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>228.2383005417824</v>
       </c>
       <c r="W39" t="n">
-        <v>247.6765211169078</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X39" t="n">
-        <v>201.2106985958346</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>201.1204091696615</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,19 +25549,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>162.684534490985</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.0531864105695</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>141.8716760389263</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>162.8404967259184</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H40" t="n">
         <v>156.9975751224423</v>
@@ -25570,7 +25570,7 @@
         <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>51.77372115642321</v>
+        <v>47.75525911241137</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S40" t="n">
-        <v>209.2036588863439</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8701016233495</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U40" t="n">
-        <v>282.2684838929392</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9914553764875</v>
+        <v>409.4291687688446</v>
       </c>
       <c r="H41" t="n">
         <v>326.0456339133427</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9226849201952</v>
+        <v>155.3603983125523</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25685,10 @@
         <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>323.189971862492</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>345.2225066734011</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>161.9708970422245</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>201.2106985958346</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>201.6642337332925</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>175.2696935742944</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25831,7 +25831,7 @@
         <v>36.90864702141808</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8459592031442</v>
+        <v>146.8274971591324</v>
       </c>
       <c r="S43" t="n">
         <v>213.7659454939867</v>
@@ -25846,13 +25846,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>214.0223667444519</v>
       </c>
     </row>
     <row r="44">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>955624.2442618523</v>
+        <v>955430.6724339983</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>941392.1141327133</v>
+        <v>941392.1141327131</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>291228.6655021489</v>
+        <v>287593.3036637409</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>291228.6655021487</v>
+        <v>291228.6655021488</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>291228.6655021488</v>
+        <v>291228.6655021489</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>291228.6655021488</v>
+        <v>291228.6655021489</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>291228.6655021488</v>
+        <v>291228.6655021487</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>291228.6655021488</v>
+        <v>291228.6655021487</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>287593.3036637409</v>
+        <v>291228.6655021488</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26314,10 @@
         <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
-        <v>532573.2338314273</v>
+        <v>532573.3752190067</v>
       </c>
       <c r="D2" t="n">
-        <v>532583.8658157188</v>
+        <v>532583.8658157187</v>
       </c>
       <c r="E2" t="n">
         <v>155700.5021628691</v>
@@ -26326,7 +26326,7 @@
         <v>155700.5021628691</v>
       </c>
       <c r="G2" t="n">
-        <v>157380.7372080417</v>
+        <v>155700.5021628691</v>
       </c>
       <c r="H2" t="n">
         <v>157380.7372080417</v>
@@ -26350,7 +26350,7 @@
         <v>157380.7372080417</v>
       </c>
       <c r="O2" t="n">
-        <v>155700.5021628691</v>
+        <v>157380.7372080417</v>
       </c>
       <c r="P2" t="n">
         <v>155700.5021628691</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>190936.0139299707</v>
+        <v>191554.9937962846</v>
       </c>
       <c r="D3" t="n">
-        <v>43775.86632017477</v>
+        <v>43193.72063717668</v>
       </c>
       <c r="E3" t="n">
         <v>52530.53686621619</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1250.454324855797</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1230.945987321517</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>456657.5771287308</v>
+        <v>457775.3608255374</v>
       </c>
       <c r="C4" t="n">
-        <v>389256.2104168472</v>
+        <v>389574.3287255744</v>
       </c>
       <c r="D4" t="n">
-        <v>373175.6561023303</v>
+        <v>373572.6966267997</v>
       </c>
       <c r="E4" t="n">
-        <v>23861.50257091381</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="F4" t="n">
-        <v>23861.50257091381</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="G4" t="n">
-        <v>24649.50451527567</v>
+        <v>24100.1461573468</v>
       </c>
       <c r="H4" t="n">
-        <v>24649.50451527567</v>
+        <v>24895.9894976685</v>
       </c>
       <c r="I4" t="n">
-        <v>24649.50451527567</v>
+        <v>24895.9894976685</v>
       </c>
       <c r="J4" t="n">
-        <v>24649.50451527567</v>
+        <v>24895.9894976685</v>
       </c>
       <c r="K4" t="n">
-        <v>24649.50451527567</v>
+        <v>24895.9894976685</v>
       </c>
       <c r="L4" t="n">
-        <v>24649.50451527567</v>
+        <v>24895.9894976685</v>
       </c>
       <c r="M4" t="n">
-        <v>24649.50451527567</v>
+        <v>24895.98949766849</v>
       </c>
       <c r="N4" t="n">
-        <v>24649.50451527567</v>
+        <v>24895.9894976685</v>
       </c>
       <c r="O4" t="n">
-        <v>23861.50257091381</v>
+        <v>24895.9894976685</v>
       </c>
       <c r="P4" t="n">
-        <v>23861.50257091381</v>
+        <v>24100.1461573468</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38198.64761868891</v>
+        <v>38213.46612456266</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
@@ -26482,7 +26482,7 @@
         <v>7110.755217351149</v>
       </c>
       <c r="G5" t="n">
-        <v>7388.142243095836</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="H5" t="n">
         <v>7388.142243095836</v>
@@ -26506,7 +26506,7 @@
         <v>7388.142243095836</v>
       </c>
       <c r="O5" t="n">
-        <v>7110.755217351149</v>
+        <v>7388.142243095836</v>
       </c>
       <c r="P5" t="n">
         <v>7110.755217351149</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42244.44303734412</v>
+        <v>41126.65934053756</v>
       </c>
       <c r="C6" t="n">
-        <v>-85817.63813407949</v>
+        <v>-86769.41342741495</v>
       </c>
       <c r="D6" t="n">
-        <v>76319.38203633297</v>
+        <v>76504.48719486158</v>
       </c>
       <c r="E6" t="n">
-        <v>72197.70750838793</v>
+        <v>71959.06392195492</v>
       </c>
       <c r="F6" t="n">
-        <v>124728.2443746041</v>
+        <v>124489.6007881711</v>
       </c>
       <c r="G6" t="n">
-        <v>124092.6361248144</v>
+        <v>124489.6007881711</v>
       </c>
       <c r="H6" t="n">
-        <v>125343.0904496702</v>
+        <v>123865.6594799558</v>
       </c>
       <c r="I6" t="n">
-        <v>125343.0904496702</v>
+        <v>125096.6054672773</v>
       </c>
       <c r="J6" t="n">
-        <v>125343.0904496702</v>
+        <v>125096.6054672774</v>
       </c>
       <c r="K6" t="n">
-        <v>125343.0904496702</v>
+        <v>125096.6054672774</v>
       </c>
       <c r="L6" t="n">
-        <v>125343.0904496702</v>
+        <v>125096.6054672774</v>
       </c>
       <c r="M6" t="n">
-        <v>125343.0904496702</v>
+        <v>125096.6054672774</v>
       </c>
       <c r="N6" t="n">
-        <v>125343.0904496702</v>
+        <v>125096.6054672774</v>
       </c>
       <c r="O6" t="n">
-        <v>124728.2443746041</v>
+        <v>125096.6054672774</v>
       </c>
       <c r="P6" t="n">
-        <v>124728.2443746041</v>
+        <v>124489.6007881711</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>209.6810834260969</v>
+        <v>210.3608314019568</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>4.562286607642875</v>
@@ -26826,7 +26826,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>209.6810834260969</v>
+        <v>210.3608314019568</v>
       </c>
       <c r="D3" t="n">
-        <v>51.11530909136793</v>
+        <v>50.43556111550802</v>
       </c>
       <c r="E3" t="n">
         <v>65.38503947111997</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>330.8420527865711</v>
+        <v>330.8140669817157</v>
       </c>
       <c r="I5" t="n">
-        <v>177.9784826607191</v>
+        <v>177.8731319719177</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>96.91884917023688</v>
+        <v>96.74719401932789</v>
       </c>
       <c r="S5" t="n">
-        <v>189.8115964663572</v>
+        <v>189.749326086458</v>
       </c>
       <c r="T5" t="n">
-        <v>219.4058839653465</v>
+        <v>219.3939217672989</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2782177855286</v>
+        <v>251.2779991731143</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8925050215017</v>
+        <v>136.8910429220819</v>
       </c>
       <c r="H6" t="n">
-        <v>107.8796164468336</v>
+        <v>107.8654956445426</v>
       </c>
       <c r="I6" t="n">
-        <v>73.86836393731261</v>
+        <v>73.81802411079846</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.15551889811644</v>
+        <v>72.06474047975539</v>
       </c>
       <c r="S6" t="n">
-        <v>163.3058183839367</v>
+        <v>163.2786605284861</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3468332639859</v>
+        <v>198.3409399772895</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9117102295466</v>
+        <v>225.9116140387953</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.6128659293297</v>
+        <v>167.6116401542913</v>
       </c>
       <c r="H7" t="n">
-        <v>158.8654003830015</v>
+        <v>158.8545021285689</v>
       </c>
       <c r="I7" t="n">
-        <v>144.0795728949054</v>
+        <v>144.0427104964768</v>
       </c>
       <c r="J7" t="n">
-        <v>66.62656067725055</v>
+        <v>66.53989838203314</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.50019965435375</v>
+        <v>54.39755770999891</v>
       </c>
       <c r="R7" t="n">
-        <v>160.2920366456043</v>
+        <v>160.2369213425125</v>
       </c>
       <c r="S7" t="n">
-        <v>217.4271121856964</v>
+        <v>217.4057502697993</v>
       </c>
       <c r="T7" t="n">
-        <v>226.3300138674575</v>
+        <v>226.3247764650205</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2984049876293</v>
+        <v>286.2983381271727</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.0108208899931</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -28032,7 +28032,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604452</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.7817879815572</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8429390288486301</v>
+        <v>0.8456716840279664</v>
       </c>
       <c r="H5" t="n">
-        <v>8.632749329196036</v>
+        <v>8.660735134051412</v>
       </c>
       <c r="I5" t="n">
-        <v>32.49740690968684</v>
+        <v>32.6027575984882</v>
       </c>
       <c r="J5" t="n">
-        <v>71.54339639974148</v>
+        <v>71.77532709226868</v>
       </c>
       <c r="K5" t="n">
-        <v>107.225005490904</v>
+        <v>107.5726094771725</v>
       </c>
       <c r="L5" t="n">
-        <v>133.0221007950303</v>
+        <v>133.4533342772434</v>
       </c>
       <c r="M5" t="n">
-        <v>148.0127177493171</v>
+        <v>148.4925480880758</v>
       </c>
       <c r="N5" t="n">
-        <v>150.4077182650333</v>
+        <v>150.8953127603202</v>
       </c>
       <c r="O5" t="n">
-        <v>142.0257432969197</v>
+        <v>142.4861649522671</v>
       </c>
       <c r="P5" t="n">
-        <v>121.2156860222192</v>
+        <v>121.6086452528267</v>
       </c>
       <c r="Q5" t="n">
-        <v>91.02793205157757</v>
+        <v>91.32302806857513</v>
       </c>
       <c r="R5" t="n">
-        <v>52.95026877091281</v>
+        <v>53.12192392182179</v>
       </c>
       <c r="S5" t="n">
-        <v>19.20847311988818</v>
+        <v>19.2707434997873</v>
       </c>
       <c r="T5" t="n">
-        <v>3.68996559878488</v>
+        <v>3.701927796832425</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06743512230789039</v>
+        <v>0.0676537347222373</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4510121417089631</v>
+        <v>0.4524742411287373</v>
       </c>
       <c r="H6" t="n">
-        <v>4.355827789662881</v>
+        <v>4.369948591953858</v>
       </c>
       <c r="I6" t="n">
-        <v>15.52826891410246</v>
+        <v>15.57860874061661</v>
       </c>
       <c r="J6" t="n">
-        <v>42.61075677435429</v>
+        <v>42.74889310593917</v>
       </c>
       <c r="K6" t="n">
-        <v>72.82857026885482</v>
+        <v>73.06466726156457</v>
       </c>
       <c r="L6" t="n">
-        <v>97.9270003302729</v>
+        <v>98.24446187314975</v>
       </c>
       <c r="M6" t="n">
-        <v>114.2761904672228</v>
+        <v>114.6466531140664</v>
       </c>
       <c r="N6" t="n">
-        <v>117.3007411894728</v>
+        <v>117.6810088802324</v>
       </c>
       <c r="O6" t="n">
-        <v>107.3072616284479</v>
+        <v>107.6551322741693</v>
       </c>
       <c r="P6" t="n">
-        <v>86.12353783212649</v>
+        <v>86.40273469413582</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.57130426446344</v>
+        <v>57.75793997285426</v>
       </c>
       <c r="R6" t="n">
-        <v>28.00231525452669</v>
+        <v>28.09309367288775</v>
       </c>
       <c r="S6" t="n">
-        <v>8.377352719901131</v>
+        <v>8.404510575351759</v>
       </c>
       <c r="T6" t="n">
-        <v>1.817895430835688</v>
+        <v>1.823788717532059</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02967185142822127</v>
+        <v>0.0297680421795222</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3781134291290272</v>
+        <v>0.379339204167463</v>
       </c>
       <c r="H7" t="n">
-        <v>3.36177212443808</v>
+        <v>3.37267037887072</v>
       </c>
       <c r="I7" t="n">
-        <v>11.37090203235293</v>
+        <v>11.40776443078153</v>
       </c>
       <c r="J7" t="n">
-        <v>26.73261943942222</v>
+        <v>26.81928173463963</v>
       </c>
       <c r="K7" t="n">
-        <v>43.92990567517242</v>
+        <v>44.07231844781979</v>
       </c>
       <c r="L7" t="n">
-        <v>56.21515472705556</v>
+        <v>56.39739404504265</v>
       </c>
       <c r="M7" t="n">
-        <v>59.27099871338013</v>
+        <v>59.46314452235968</v>
       </c>
       <c r="N7" t="n">
-        <v>57.86166684117199</v>
+        <v>58.049243852281</v>
       </c>
       <c r="O7" t="n">
-        <v>53.44461450998288</v>
+        <v>53.61787223996107</v>
       </c>
       <c r="P7" t="n">
-        <v>45.73110055575069</v>
+        <v>45.87935247494478</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.66184359734063</v>
+        <v>31.76448554169547</v>
       </c>
       <c r="R7" t="n">
-        <v>17.00135473156516</v>
+        <v>17.05647003465701</v>
       </c>
       <c r="S7" t="n">
-        <v>6.589485851275862</v>
+        <v>6.610847767172968</v>
       </c>
       <c r="T7" t="n">
-        <v>1.615575560824025</v>
+        <v>1.620812963260978</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02062436886158332</v>
+        <v>0.02069122931822528</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31522,7 +31522,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388616</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31546,7 +31546,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.85829705115658</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31555,7 +31555,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,7 +31595,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051487</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31628,7 +31628,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.4195539840704</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31680,7 +31680,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062825</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31695,13 +31695,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707449</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298935</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013718</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -32245,7 +32245,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
-        <v>233.9753502042338</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>220.9362884380569</v>
@@ -32318,16 +32318,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
-        <v>142.932331575087</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>146.6963205296612</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>135.9039986909762</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>147.1585310520873</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -33029,7 +33029,7 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
-        <v>142.932331575087</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M27" t="n">
         <v>146.6963205296612</v>
@@ -33038,7 +33038,7 @@
         <v>135.9039986909762</v>
       </c>
       <c r="O27" t="n">
-        <v>147.1585310520873</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33506,13 +33506,13 @@
         <v>143.1166663875171</v>
       </c>
       <c r="M33" t="n">
-        <v>146.5119857172312</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N33" t="n">
         <v>135.9039986909762</v>
       </c>
       <c r="O33" t="n">
-        <v>147.1585310520873</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33740,13 +33740,13 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
-        <v>143.1166663875171</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M36" t="n">
         <v>146.6963205296612</v>
       </c>
       <c r="N36" t="n">
-        <v>135.7196638785462</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O36" t="n">
         <v>147.1585310520873</v>
@@ -34141,7 +34141,7 @@
         <v>230.2496698278014</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O41" t="n">
         <v>220.9362884380569</v>
@@ -34214,16 +34214,16 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>142.932331575087</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>146.6963205296612</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -35890,16 +35890,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,13 +36133,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M22" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="N22" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="O22" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N23" t="n">
         <v>4.562286607642875</v>
@@ -36373,10 +36373,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L25" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="M25" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O25" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="N26" t="n">
         <v>4.562286607642875</v>
@@ -36610,10 +36610,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M27" t="n">
         <v>4.562286607642875</v>
@@ -36686,7 +36686,7 @@
         <v>4.562286607642875</v>
       </c>
       <c r="O27" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="N28" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.377951795212859</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>4.562286607642875</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N29" t="n">
         <v>4.562286607642875</v>
@@ -36850,7 +36850,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="M31" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O31" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P31" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>4.562286607642875</v>
@@ -37084,10 +37084,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="M33" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N33" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O33" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="M34" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="N34" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P34" t="n">
         <v>4.562286607642875</v>
@@ -37306,25 +37306,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="L35" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M36" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="N36" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O36" t="n">
         <v>4.562286607642875</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L37" t="n">
         <v>4.562286607642875</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="K38" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="L38" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>4.562286607642875</v>
@@ -37558,7 +37558,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="N40" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.377951795212859</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>4.562286607642875</v>
@@ -37786,19 +37786,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,16 +37862,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
